--- a/expense_list2016/201610_expense_list.xlsx
+++ b/expense_list2016/201610_expense_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1113">
   <si>
     <t>nid</t>
   </si>
@@ -2765,6 +2765,291 @@
     <t>수석전문위원 김선희 외 7명</t>
   </si>
   <si>
+    <t>2016년 10월 서울시본청_기획조정실_국제교류담당관 업무추진비 내역</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/13572538</t>
+  </si>
+  <si>
+    <t>기획조정실</t>
+  </si>
+  <si>
+    <t>국제교류담당관</t>
+  </si>
+  <si>
+    <t>2016-10-31 20:29</t>
+  </si>
+  <si>
+    <t>우리집　순두부</t>
+  </si>
+  <si>
+    <t>국제관계대사 등 10명</t>
+  </si>
+  <si>
+    <t>부서 법인카드</t>
+  </si>
+  <si>
+    <t>2016-10-31 12:55</t>
+  </si>
+  <si>
+    <t>곰국시집</t>
+  </si>
+  <si>
+    <t>국제협력관 등 4명</t>
+  </si>
+  <si>
+    <t>2016-10-28 13:19</t>
+  </si>
+  <si>
+    <t>가봉루</t>
+  </si>
+  <si>
+    <t>중국팀장 등 15명</t>
+  </si>
+  <si>
+    <t>2016-10-27 20:52</t>
+  </si>
+  <si>
+    <t>한우마당</t>
+  </si>
+  <si>
+    <t>국제협력관 등 13명</t>
+  </si>
+  <si>
+    <t>2016-10-27 13:11</t>
+  </si>
+  <si>
+    <t>국제관계대사 등 6명</t>
+  </si>
+  <si>
+    <t>2016-10-27 12:31</t>
+  </si>
+  <si>
+    <t>신가원　설렁탕</t>
+  </si>
+  <si>
+    <t>중국팀장 등 4명</t>
+  </si>
+  <si>
+    <t>2016-10-25 20:00</t>
+  </si>
+  <si>
+    <t>돈수백</t>
+  </si>
+  <si>
+    <t>국제정책팀장 등 6명</t>
+  </si>
+  <si>
+    <t>2016-10-25 12:31</t>
+  </si>
+  <si>
+    <t>흑산도　홍어본가</t>
+  </si>
+  <si>
+    <t>국제과장 등 5명</t>
+  </si>
+  <si>
+    <t>2016-10-24 21:10</t>
+  </si>
+  <si>
+    <t>국제과장 등 8명</t>
+  </si>
+  <si>
+    <t>2016-10-24 11:48</t>
+  </si>
+  <si>
+    <t>카페　그레벵</t>
+  </si>
+  <si>
+    <t>아시아팀장 등 6명</t>
+  </si>
+  <si>
+    <t>2016-10-24 13:16</t>
+  </si>
+  <si>
+    <t>전주산수비빔밥</t>
+  </si>
+  <si>
+    <t>미주구주팀장 등 4명</t>
+  </si>
+  <si>
+    <t>2016-10-23 14:36</t>
+  </si>
+  <si>
+    <t>투썸플레이스서울시청</t>
+  </si>
+  <si>
+    <t>중국팀장 등 5명</t>
+  </si>
+  <si>
+    <t>2016-10-23 12:51</t>
+  </si>
+  <si>
+    <t>국제협력관 등 7명</t>
+  </si>
+  <si>
+    <t>2016-10-21 20:28</t>
+  </si>
+  <si>
+    <t>손가황구네</t>
+  </si>
+  <si>
+    <t>국제협력관 등 8명</t>
+  </si>
+  <si>
+    <t>2016-10-21 12:15</t>
+  </si>
+  <si>
+    <t>미가</t>
+  </si>
+  <si>
+    <t>국제과장 등 4명</t>
+  </si>
+  <si>
+    <t>2016-10-20 13:08</t>
+  </si>
+  <si>
+    <t>2016-10-19 13:14</t>
+  </si>
+  <si>
+    <t>국제협력관 등 5명</t>
+  </si>
+  <si>
+    <t>2016-10-18 20:35</t>
+  </si>
+  <si>
+    <t>이화수　전통육개장</t>
+  </si>
+  <si>
+    <t>아시아팀장 등 5명</t>
+  </si>
+  <si>
+    <t>2016-10-18 20:24</t>
+  </si>
+  <si>
+    <t>포메인</t>
+  </si>
+  <si>
+    <t>2016-10-18 12:46</t>
+  </si>
+  <si>
+    <t>2016-10-18 12:37</t>
+  </si>
+  <si>
+    <t>（주）이티앤제우스불</t>
+  </si>
+  <si>
+    <t>국제협력관 등 6명</t>
+  </si>
+  <si>
+    <t>2016-10-17 12:47</t>
+  </si>
+  <si>
+    <t>주식회사해우리무교점</t>
+  </si>
+  <si>
+    <t>2016-10-17 08:50</t>
+  </si>
+  <si>
+    <t>（주）호텔신라</t>
+  </si>
+  <si>
+    <t>국제관계대사 등 4명</t>
+  </si>
+  <si>
+    <t>2016-10-13 20:31</t>
+  </si>
+  <si>
+    <t>안동국시</t>
+  </si>
+  <si>
+    <t>국제협력관 등 11명</t>
+  </si>
+  <si>
+    <t>2016-10-13 15:01</t>
+  </si>
+  <si>
+    <t>행복한베이커리＆카페</t>
+  </si>
+  <si>
+    <t>미주구주팀장 등 6명</t>
+  </si>
+  <si>
+    <t>2016-10-13 12:32</t>
+  </si>
+  <si>
+    <t>（주）바이오비즈　이</t>
+  </si>
+  <si>
+    <t>아시아팀장 등 4명</t>
+  </si>
+  <si>
+    <t>2016-10-13 12:28</t>
+  </si>
+  <si>
+    <t>2016-10-12 12:17</t>
+  </si>
+  <si>
+    <t>2016-10-11 21:32</t>
+  </si>
+  <si>
+    <t>（주）초류향</t>
+  </si>
+  <si>
+    <t>국제협력관 등 14명</t>
+  </si>
+  <si>
+    <t>2016-10-11 13:55</t>
+  </si>
+  <si>
+    <t>（주）한미리</t>
+  </si>
+  <si>
+    <t>국제관계대사 등 2명</t>
+  </si>
+  <si>
+    <t>2016-10-11 13:20</t>
+  </si>
+  <si>
+    <t>참맛순대국</t>
+  </si>
+  <si>
+    <t>국제교류담당관 등 3명</t>
+  </si>
+  <si>
+    <t>2016-10-11 12:59</t>
+  </si>
+  <si>
+    <t>라칸티나</t>
+  </si>
+  <si>
+    <t>국제혐력관 등 5명</t>
+  </si>
+  <si>
+    <t>2016-10-10 20:23</t>
+  </si>
+  <si>
+    <t>국제교류담당관 등 9명</t>
+  </si>
+  <si>
+    <t>2016-10-10 12:44</t>
+  </si>
+  <si>
+    <t>한가람</t>
+  </si>
+  <si>
+    <t>2016-10-07 13:16</t>
+  </si>
+  <si>
+    <t>2016-10-05 13:16</t>
+  </si>
+  <si>
+    <t>（주）리틀타이</t>
+  </si>
+  <si>
+    <t>2016-10-04 12:46</t>
+  </si>
+  <si>
     <t>2016년 10월 서울시본청_서울특별시장_총무과 업무추진비 내역</t>
   </si>
   <si>
@@ -2823,9 +3108,6 @@
   </si>
   <si>
     <t>시장 등 17명</t>
-  </si>
-  <si>
-    <t>2016-10-25 20:00</t>
   </si>
   <si>
     <t>뚱보먹거리 (성동구 천호대로)</t>
@@ -3410,7 +3692,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R422"/>
+  <dimension ref="A1:R459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -20446,7 +20728,7 @@
     </row>
     <row r="373" spans="1:18">
       <c r="A373">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B373" t="s">
         <v>916</v>
@@ -20460,7 +20742,9 @@
       <c r="E373" t="s">
         <v>918</v>
       </c>
-      <c r="F373"/>
+      <c r="F373" t="s">
+        <v>919</v>
+      </c>
       <c r="G373"/>
       <c r="H373"/>
       <c r="I373">
@@ -20469,34 +20753,28 @@
       <c r="J373">
         <v>10</v>
       </c>
-      <c r="K373">
-        <v>380200000</v>
-      </c>
-      <c r="L373">
-        <v>204403750</v>
-      </c>
-      <c r="M373" t="s">
-        <v>22</v>
-      </c>
+      <c r="K373"/>
+      <c r="L373"/>
+      <c r="M373"/>
       <c r="N373" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="O373" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="P373" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="Q373" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R373">
-        <v>164600</v>
+        <v>266000</v>
       </c>
     </row>
     <row r="374" spans="1:18">
       <c r="A374">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B374" t="s">
         <v>916</v>
@@ -20510,7 +20788,9 @@
       <c r="E374" t="s">
         <v>918</v>
       </c>
-      <c r="F374"/>
+      <c r="F374" t="s">
+        <v>919</v>
+      </c>
       <c r="G374"/>
       <c r="H374"/>
       <c r="I374">
@@ -20519,34 +20799,28 @@
       <c r="J374">
         <v>10</v>
       </c>
-      <c r="K374">
-        <v>380200000</v>
-      </c>
-      <c r="L374">
-        <v>204403750</v>
-      </c>
-      <c r="M374" t="s">
-        <v>922</v>
-      </c>
+      <c r="K374"/>
+      <c r="L374"/>
+      <c r="M374"/>
       <c r="N374" t="s">
+        <v>924</v>
+      </c>
+      <c r="O374" t="s">
+        <v>925</v>
+      </c>
+      <c r="P374" t="s">
+        <v>926</v>
+      </c>
+      <c r="Q374" t="s">
         <v>923</v>
       </c>
-      <c r="O374" t="s">
-        <v>924</v>
-      </c>
-      <c r="P374" t="s">
-        <v>925</v>
-      </c>
-      <c r="Q374" t="s">
-        <v>25</v>
-      </c>
       <c r="R374">
-        <v>307960</v>
+        <v>109000</v>
       </c>
     </row>
     <row r="375" spans="1:18">
       <c r="A375">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B375" t="s">
         <v>916</v>
@@ -20560,7 +20834,9 @@
       <c r="E375" t="s">
         <v>918</v>
       </c>
-      <c r="F375"/>
+      <c r="F375" t="s">
+        <v>919</v>
+      </c>
       <c r="G375"/>
       <c r="H375"/>
       <c r="I375">
@@ -20569,32 +20845,28 @@
       <c r="J375">
         <v>10</v>
       </c>
-      <c r="K375">
-        <v>380200000</v>
-      </c>
-      <c r="L375">
-        <v>204403750</v>
-      </c>
-      <c r="M375" t="s">
-        <v>22</v>
-      </c>
+      <c r="K375"/>
+      <c r="L375"/>
+      <c r="M375"/>
       <c r="N375" t="s">
-        <v>365</v>
+        <v>927</v>
       </c>
       <c r="O375" t="s">
-        <v>366</v>
-      </c>
-      <c r="P375"/>
+        <v>928</v>
+      </c>
+      <c r="P375" t="s">
+        <v>929</v>
+      </c>
       <c r="Q375" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R375">
-        <v>497500</v>
+        <v>239000</v>
       </c>
     </row>
     <row r="376" spans="1:18">
       <c r="A376">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B376" t="s">
         <v>916</v>
@@ -20608,7 +20880,9 @@
       <c r="E376" t="s">
         <v>918</v>
       </c>
-      <c r="F376"/>
+      <c r="F376" t="s">
+        <v>919</v>
+      </c>
       <c r="G376"/>
       <c r="H376"/>
       <c r="I376">
@@ -20617,34 +20891,28 @@
       <c r="J376">
         <v>10</v>
       </c>
-      <c r="K376">
-        <v>380200000</v>
-      </c>
-      <c r="L376">
-        <v>204403750</v>
-      </c>
-      <c r="M376" t="s">
-        <v>22</v>
-      </c>
+      <c r="K376"/>
+      <c r="L376"/>
+      <c r="M376"/>
       <c r="N376" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="O376" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="P376" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="Q376" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R376">
-        <v>277000</v>
+        <v>314000</v>
       </c>
     </row>
     <row r="377" spans="1:18">
       <c r="A377">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B377" t="s">
         <v>916</v>
@@ -20658,7 +20926,9 @@
       <c r="E377" t="s">
         <v>918</v>
       </c>
-      <c r="F377"/>
+      <c r="F377" t="s">
+        <v>919</v>
+      </c>
       <c r="G377"/>
       <c r="H377"/>
       <c r="I377">
@@ -20667,34 +20937,28 @@
       <c r="J377">
         <v>10</v>
       </c>
-      <c r="K377">
-        <v>380200000</v>
-      </c>
-      <c r="L377">
-        <v>204403750</v>
-      </c>
-      <c r="M377" t="s">
-        <v>22</v>
-      </c>
+      <c r="K377"/>
+      <c r="L377"/>
+      <c r="M377"/>
       <c r="N377" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="O377" t="s">
-        <v>661</v>
+        <v>313</v>
       </c>
       <c r="P377" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="Q377" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R377">
-        <v>125000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="378" spans="1:18">
       <c r="A378">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B378" t="s">
         <v>916</v>
@@ -20708,7 +20972,9 @@
       <c r="E378" t="s">
         <v>918</v>
       </c>
-      <c r="F378"/>
+      <c r="F378" t="s">
+        <v>919</v>
+      </c>
       <c r="G378"/>
       <c r="H378"/>
       <c r="I378">
@@ -20717,34 +20983,28 @@
       <c r="J378">
         <v>10</v>
       </c>
-      <c r="K378">
-        <v>380200000</v>
-      </c>
-      <c r="L378">
-        <v>204403750</v>
-      </c>
-      <c r="M378" t="s">
-        <v>22</v>
-      </c>
+      <c r="K378"/>
+      <c r="L378"/>
+      <c r="M378"/>
       <c r="N378" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="O378" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="P378" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="Q378" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R378">
-        <v>161000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="379" spans="1:18">
       <c r="A379">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B379" t="s">
         <v>916</v>
@@ -20758,7 +21018,9 @@
       <c r="E379" t="s">
         <v>918</v>
       </c>
-      <c r="F379"/>
+      <c r="F379" t="s">
+        <v>919</v>
+      </c>
       <c r="G379"/>
       <c r="H379"/>
       <c r="I379">
@@ -20767,34 +21029,28 @@
       <c r="J379">
         <v>10</v>
       </c>
-      <c r="K379">
-        <v>380200000</v>
-      </c>
-      <c r="L379">
-        <v>204403750</v>
-      </c>
-      <c r="M379" t="s">
-        <v>22</v>
-      </c>
+      <c r="K379"/>
+      <c r="L379"/>
+      <c r="M379"/>
       <c r="N379" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="O379" t="s">
-        <v>383</v>
+        <v>939</v>
       </c>
       <c r="P379" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="Q379" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R379">
-        <v>300000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="380" spans="1:18">
       <c r="A380">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B380" t="s">
         <v>916</v>
@@ -20808,7 +21064,9 @@
       <c r="E380" t="s">
         <v>918</v>
       </c>
-      <c r="F380"/>
+      <c r="F380" t="s">
+        <v>919</v>
+      </c>
       <c r="G380"/>
       <c r="H380"/>
       <c r="I380">
@@ -20817,34 +21075,28 @@
       <c r="J380">
         <v>10</v>
       </c>
-      <c r="K380">
-        <v>380200000</v>
-      </c>
-      <c r="L380">
-        <v>204403750</v>
-      </c>
-      <c r="M380" t="s">
-        <v>22</v>
-      </c>
+      <c r="K380"/>
+      <c r="L380"/>
+      <c r="M380"/>
       <c r="N380" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="O380" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="P380" t="s">
-        <v>921</v>
+        <v>943</v>
       </c>
       <c r="Q380" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R380">
-        <v>100000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="381" spans="1:18">
       <c r="A381">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B381" t="s">
         <v>916</v>
@@ -20858,7 +21110,9 @@
       <c r="E381" t="s">
         <v>918</v>
       </c>
-      <c r="F381"/>
+      <c r="F381" t="s">
+        <v>919</v>
+      </c>
       <c r="G381"/>
       <c r="H381"/>
       <c r="I381">
@@ -20867,34 +21121,28 @@
       <c r="J381">
         <v>10</v>
       </c>
-      <c r="K381">
-        <v>380200000</v>
-      </c>
-      <c r="L381">
-        <v>204403750</v>
-      </c>
-      <c r="M381" t="s">
-        <v>22</v>
-      </c>
+      <c r="K381"/>
+      <c r="L381"/>
+      <c r="M381"/>
       <c r="N381" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="O381" t="s">
-        <v>939</v>
+        <v>257</v>
       </c>
       <c r="P381" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="Q381" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R381">
-        <v>390000</v>
+        <v>222800</v>
       </c>
     </row>
     <row r="382" spans="1:18">
       <c r="A382">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B382" t="s">
         <v>916</v>
@@ -20908,7 +21156,9 @@
       <c r="E382" t="s">
         <v>918</v>
       </c>
-      <c r="F382"/>
+      <c r="F382" t="s">
+        <v>919</v>
+      </c>
       <c r="G382"/>
       <c r="H382"/>
       <c r="I382">
@@ -20917,34 +21167,28 @@
       <c r="J382">
         <v>10</v>
       </c>
-      <c r="K382">
-        <v>380200000</v>
-      </c>
-      <c r="L382">
-        <v>204403750</v>
-      </c>
-      <c r="M382" t="s">
-        <v>922</v>
-      </c>
+      <c r="K382"/>
+      <c r="L382"/>
+      <c r="M382"/>
       <c r="N382" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="O382" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="P382" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="Q382" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R382">
-        <v>314200</v>
+        <v>69050</v>
       </c>
     </row>
     <row r="383" spans="1:18">
       <c r="A383">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B383" t="s">
         <v>916</v>
@@ -20958,7 +21202,9 @@
       <c r="E383" t="s">
         <v>918</v>
       </c>
-      <c r="F383"/>
+      <c r="F383" t="s">
+        <v>919</v>
+      </c>
       <c r="G383"/>
       <c r="H383"/>
       <c r="I383">
@@ -20967,34 +21213,28 @@
       <c r="J383">
         <v>10</v>
       </c>
-      <c r="K383">
-        <v>380200000</v>
-      </c>
-      <c r="L383">
-        <v>204403750</v>
-      </c>
-      <c r="M383" t="s">
-        <v>22</v>
-      </c>
+      <c r="K383"/>
+      <c r="L383"/>
+      <c r="M383"/>
       <c r="N383" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="O383" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="P383" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="Q383" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R383">
-        <v>68000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="384" spans="1:18">
       <c r="A384">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B384" t="s">
         <v>916</v>
@@ -21008,7 +21248,9 @@
       <c r="E384" t="s">
         <v>918</v>
       </c>
-      <c r="F384"/>
+      <c r="F384" t="s">
+        <v>919</v>
+      </c>
       <c r="G384"/>
       <c r="H384"/>
       <c r="I384">
@@ -21017,34 +21259,28 @@
       <c r="J384">
         <v>10</v>
       </c>
-      <c r="K384">
-        <v>380200000</v>
-      </c>
-      <c r="L384">
-        <v>204403750</v>
-      </c>
-      <c r="M384" t="s">
-        <v>22</v>
-      </c>
+      <c r="K384"/>
+      <c r="L384"/>
+      <c r="M384"/>
       <c r="N384" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="O384" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="P384" t="s">
-        <v>930</v>
+        <v>954</v>
       </c>
       <c r="Q384" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R384">
-        <v>99000</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="385" spans="1:18">
       <c r="A385">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B385" t="s">
         <v>916</v>
@@ -21058,7 +21294,9 @@
       <c r="E385" t="s">
         <v>918</v>
       </c>
-      <c r="F385"/>
+      <c r="F385" t="s">
+        <v>919</v>
+      </c>
       <c r="G385"/>
       <c r="H385"/>
       <c r="I385">
@@ -21067,34 +21305,28 @@
       <c r="J385">
         <v>10</v>
       </c>
-      <c r="K385">
-        <v>380200000</v>
-      </c>
-      <c r="L385">
-        <v>204403750</v>
-      </c>
-      <c r="M385" t="s">
-        <v>22</v>
-      </c>
+      <c r="K385"/>
+      <c r="L385"/>
+      <c r="M385"/>
       <c r="N385" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="O385" t="s">
-        <v>519</v>
+        <v>925</v>
       </c>
       <c r="P385" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="Q385" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R385">
-        <v>130500</v>
+        <v>178000</v>
       </c>
     </row>
     <row r="386" spans="1:18">
       <c r="A386">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B386" t="s">
         <v>916</v>
@@ -21108,7 +21340,9 @@
       <c r="E386" t="s">
         <v>918</v>
       </c>
-      <c r="F386"/>
+      <c r="F386" t="s">
+        <v>919</v>
+      </c>
       <c r="G386"/>
       <c r="H386"/>
       <c r="I386">
@@ -21117,34 +21351,28 @@
       <c r="J386">
         <v>10</v>
       </c>
-      <c r="K386">
-        <v>380200000</v>
-      </c>
-      <c r="L386">
-        <v>204403750</v>
-      </c>
-      <c r="M386" t="s">
-        <v>22</v>
-      </c>
+      <c r="K386"/>
+      <c r="L386"/>
+      <c r="M386"/>
       <c r="N386" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="O386" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="P386" t="s">
-        <v>930</v>
+        <v>959</v>
       </c>
       <c r="Q386" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R386">
-        <v>122000</v>
+        <v>203000</v>
       </c>
     </row>
     <row r="387" spans="1:18">
       <c r="A387">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B387" t="s">
         <v>916</v>
@@ -21158,7 +21386,9 @@
       <c r="E387" t="s">
         <v>918</v>
       </c>
-      <c r="F387"/>
+      <c r="F387" t="s">
+        <v>919</v>
+      </c>
       <c r="G387"/>
       <c r="H387"/>
       <c r="I387">
@@ -21167,34 +21397,28 @@
       <c r="J387">
         <v>10</v>
       </c>
-      <c r="K387">
-        <v>380200000</v>
-      </c>
-      <c r="L387">
-        <v>204403750</v>
-      </c>
-      <c r="M387" t="s">
-        <v>22</v>
-      </c>
+      <c r="K387"/>
+      <c r="L387"/>
+      <c r="M387"/>
       <c r="N387" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="O387" t="s">
-        <v>661</v>
+        <v>961</v>
       </c>
       <c r="P387" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="Q387" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R387">
-        <v>250000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="388" spans="1:18">
       <c r="A388">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B388" t="s">
         <v>916</v>
@@ -21208,7 +21432,9 @@
       <c r="E388" t="s">
         <v>918</v>
       </c>
-      <c r="F388"/>
+      <c r="F388" t="s">
+        <v>919</v>
+      </c>
       <c r="G388"/>
       <c r="H388"/>
       <c r="I388">
@@ -21217,34 +21443,28 @@
       <c r="J388">
         <v>10</v>
       </c>
-      <c r="K388">
-        <v>380200000</v>
-      </c>
-      <c r="L388">
-        <v>204403750</v>
-      </c>
-      <c r="M388" t="s">
-        <v>22</v>
-      </c>
+      <c r="K388"/>
+      <c r="L388"/>
+      <c r="M388"/>
       <c r="N388" t="s">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="O388" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="P388" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="Q388" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R388">
-        <v>448000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="389" spans="1:18">
       <c r="A389">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B389" t="s">
         <v>916</v>
@@ -21258,7 +21478,9 @@
       <c r="E389" t="s">
         <v>918</v>
       </c>
-      <c r="F389"/>
+      <c r="F389" t="s">
+        <v>919</v>
+      </c>
       <c r="G389"/>
       <c r="H389"/>
       <c r="I389">
@@ -21267,34 +21489,28 @@
       <c r="J389">
         <v>10</v>
       </c>
-      <c r="K389">
-        <v>380200000</v>
-      </c>
-      <c r="L389">
-        <v>204403750</v>
-      </c>
-      <c r="M389" t="s">
-        <v>22</v>
-      </c>
+      <c r="K389"/>
+      <c r="L389"/>
+      <c r="M389"/>
       <c r="N389" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="O389" t="s">
-        <v>451</v>
+        <v>257</v>
       </c>
       <c r="P389" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="Q389" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R389">
-        <v>39000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="390" spans="1:18">
       <c r="A390">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B390" t="s">
         <v>916</v>
@@ -21308,7 +21524,9 @@
       <c r="E390" t="s">
         <v>918</v>
       </c>
-      <c r="F390"/>
+      <c r="F390" t="s">
+        <v>919</v>
+      </c>
       <c r="G390"/>
       <c r="H390"/>
       <c r="I390">
@@ -21317,34 +21535,28 @@
       <c r="J390">
         <v>10</v>
       </c>
-      <c r="K390">
-        <v>380200000</v>
-      </c>
-      <c r="L390">
-        <v>204403750</v>
-      </c>
-      <c r="M390" t="s">
-        <v>22</v>
-      </c>
+      <c r="K390"/>
+      <c r="L390"/>
+      <c r="M390"/>
       <c r="N390" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="O390" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="P390" t="s">
-        <v>930</v>
+        <v>968</v>
       </c>
       <c r="Q390" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R390">
-        <v>112800</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="391" spans="1:18">
       <c r="A391">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B391" t="s">
         <v>916</v>
@@ -21358,7 +21570,9 @@
       <c r="E391" t="s">
         <v>918</v>
       </c>
-      <c r="F391"/>
+      <c r="F391" t="s">
+        <v>919</v>
+      </c>
       <c r="G391"/>
       <c r="H391"/>
       <c r="I391">
@@ -21367,34 +21581,28 @@
       <c r="J391">
         <v>10</v>
       </c>
-      <c r="K391">
-        <v>380200000</v>
-      </c>
-      <c r="L391">
-        <v>204403750</v>
-      </c>
-      <c r="M391" t="s">
-        <v>22</v>
-      </c>
+      <c r="K391"/>
+      <c r="L391"/>
+      <c r="M391"/>
       <c r="N391" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="O391" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="P391" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
       <c r="Q391" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R391">
-        <v>93000</v>
+        <v>119500</v>
       </c>
     </row>
     <row r="392" spans="1:18">
       <c r="A392">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B392" t="s">
         <v>916</v>
@@ -21408,7 +21616,9 @@
       <c r="E392" t="s">
         <v>918</v>
       </c>
-      <c r="F392"/>
+      <c r="F392" t="s">
+        <v>919</v>
+      </c>
       <c r="G392"/>
       <c r="H392"/>
       <c r="I392">
@@ -21417,34 +21627,28 @@
       <c r="J392">
         <v>10</v>
       </c>
-      <c r="K392">
-        <v>380200000</v>
-      </c>
-      <c r="L392">
-        <v>204403750</v>
-      </c>
-      <c r="M392" t="s">
-        <v>22</v>
-      </c>
+      <c r="K392"/>
+      <c r="L392"/>
+      <c r="M392"/>
       <c r="N392" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="O392" t="s">
-        <v>964</v>
+        <v>299</v>
       </c>
       <c r="P392" t="s">
-        <v>930</v>
+        <v>959</v>
       </c>
       <c r="Q392" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R392">
-        <v>110000</v>
+        <v>189000</v>
       </c>
     </row>
     <row r="393" spans="1:18">
       <c r="A393">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B393" t="s">
         <v>916</v>
@@ -21458,7 +21662,9 @@
       <c r="E393" t="s">
         <v>918</v>
       </c>
-      <c r="F393"/>
+      <c r="F393" t="s">
+        <v>919</v>
+      </c>
       <c r="G393"/>
       <c r="H393"/>
       <c r="I393">
@@ -21467,34 +21673,28 @@
       <c r="J393">
         <v>10</v>
       </c>
-      <c r="K393">
-        <v>380200000</v>
-      </c>
-      <c r="L393">
-        <v>204403750</v>
-      </c>
-      <c r="M393" t="s">
-        <v>22</v>
-      </c>
+      <c r="K393"/>
+      <c r="L393"/>
+      <c r="M393"/>
       <c r="N393" t="s">
-        <v>530</v>
+        <v>972</v>
       </c>
       <c r="O393" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="P393" t="s">
-        <v>946</v>
+        <v>974</v>
       </c>
       <c r="Q393" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R393">
-        <v>58000</v>
+        <v>95400</v>
       </c>
     </row>
     <row r="394" spans="1:18">
       <c r="A394">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B394" t="s">
         <v>916</v>
@@ -21508,7 +21708,9 @@
       <c r="E394" t="s">
         <v>918</v>
       </c>
-      <c r="F394"/>
+      <c r="F394" t="s">
+        <v>919</v>
+      </c>
       <c r="G394"/>
       <c r="H394"/>
       <c r="I394">
@@ -21517,34 +21719,28 @@
       <c r="J394">
         <v>10</v>
       </c>
-      <c r="K394">
-        <v>380200000</v>
-      </c>
-      <c r="L394">
-        <v>204403750</v>
-      </c>
-      <c r="M394" t="s">
-        <v>22</v>
-      </c>
+      <c r="K394"/>
+      <c r="L394"/>
+      <c r="M394"/>
       <c r="N394" t="s">
-        <v>966</v>
+        <v>975</v>
       </c>
       <c r="O394" t="s">
-        <v>967</v>
+        <v>976</v>
       </c>
       <c r="P394" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="Q394" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R394">
-        <v>328000</v>
+        <v>174000</v>
       </c>
     </row>
     <row r="395" spans="1:18">
       <c r="A395">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B395" t="s">
         <v>916</v>
@@ -21558,7 +21754,9 @@
       <c r="E395" t="s">
         <v>918</v>
       </c>
-      <c r="F395"/>
+      <c r="F395" t="s">
+        <v>919</v>
+      </c>
       <c r="G395"/>
       <c r="H395"/>
       <c r="I395">
@@ -21567,34 +21765,28 @@
       <c r="J395">
         <v>10</v>
       </c>
-      <c r="K395">
-        <v>380200000</v>
-      </c>
-      <c r="L395">
-        <v>204403750</v>
-      </c>
-      <c r="M395" t="s">
-        <v>22</v>
-      </c>
+      <c r="K395"/>
+      <c r="L395"/>
+      <c r="M395"/>
       <c r="N395" t="s">
-        <v>80</v>
+        <v>977</v>
       </c>
       <c r="O395" t="s">
-        <v>969</v>
+        <v>978</v>
       </c>
       <c r="P395" t="s">
-        <v>970</v>
+        <v>979</v>
       </c>
       <c r="Q395" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R395">
-        <v>42000</v>
+        <v>68002</v>
       </c>
     </row>
     <row r="396" spans="1:18">
       <c r="A396">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B396" t="s">
         <v>916</v>
@@ -21608,7 +21800,9 @@
       <c r="E396" t="s">
         <v>918</v>
       </c>
-      <c r="F396"/>
+      <c r="F396" t="s">
+        <v>919</v>
+      </c>
       <c r="G396"/>
       <c r="H396"/>
       <c r="I396">
@@ -21617,34 +21811,28 @@
       <c r="J396">
         <v>10</v>
       </c>
-      <c r="K396">
-        <v>380200000</v>
-      </c>
-      <c r="L396">
-        <v>204403750</v>
-      </c>
-      <c r="M396" t="s">
-        <v>22</v>
-      </c>
+      <c r="K396"/>
+      <c r="L396"/>
+      <c r="M396"/>
       <c r="N396" t="s">
-        <v>971</v>
+        <v>980</v>
       </c>
       <c r="O396" t="s">
-        <v>972</v>
+        <v>981</v>
       </c>
       <c r="P396" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="Q396" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R396">
-        <v>12000</v>
+        <v>291000</v>
       </c>
     </row>
     <row r="397" spans="1:18">
       <c r="A397">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B397" t="s">
         <v>916</v>
@@ -21658,7 +21846,9 @@
       <c r="E397" t="s">
         <v>918</v>
       </c>
-      <c r="F397"/>
+      <c r="F397" t="s">
+        <v>919</v>
+      </c>
       <c r="G397"/>
       <c r="H397"/>
       <c r="I397">
@@ -21667,34 +21857,28 @@
       <c r="J397">
         <v>10</v>
       </c>
-      <c r="K397">
-        <v>380200000</v>
-      </c>
-      <c r="L397">
-        <v>204403750</v>
-      </c>
-      <c r="M397" t="s">
-        <v>22</v>
-      </c>
+      <c r="K397"/>
+      <c r="L397"/>
+      <c r="M397"/>
       <c r="N397" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="O397" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="P397" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="Q397" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R397">
-        <v>91000</v>
+        <v>69000</v>
       </c>
     </row>
     <row r="398" spans="1:18">
       <c r="A398">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B398" t="s">
         <v>916</v>
@@ -21708,7 +21892,9 @@
       <c r="E398" t="s">
         <v>918</v>
       </c>
-      <c r="F398"/>
+      <c r="F398" t="s">
+        <v>919</v>
+      </c>
       <c r="G398"/>
       <c r="H398"/>
       <c r="I398">
@@ -21717,34 +21903,28 @@
       <c r="J398">
         <v>10</v>
       </c>
-      <c r="K398">
-        <v>380200000</v>
-      </c>
-      <c r="L398">
-        <v>204403750</v>
-      </c>
-      <c r="M398" t="s">
-        <v>22</v>
-      </c>
+      <c r="K398"/>
+      <c r="L398"/>
+      <c r="M398"/>
       <c r="N398" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
       <c r="O398" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="P398" t="s">
-        <v>975</v>
+        <v>988</v>
       </c>
       <c r="Q398" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R398">
-        <v>67000</v>
+        <v>66500</v>
       </c>
     </row>
     <row r="399" spans="1:18">
       <c r="A399">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B399" t="s">
         <v>916</v>
@@ -21758,7 +21938,9 @@
       <c r="E399" t="s">
         <v>918</v>
       </c>
-      <c r="F399"/>
+      <c r="F399" t="s">
+        <v>919</v>
+      </c>
       <c r="G399"/>
       <c r="H399"/>
       <c r="I399">
@@ -21767,34 +21949,28 @@
       <c r="J399">
         <v>10</v>
       </c>
-      <c r="K399">
-        <v>380200000</v>
-      </c>
-      <c r="L399">
-        <v>204403750</v>
-      </c>
-      <c r="M399" t="s">
-        <v>22</v>
-      </c>
+      <c r="K399"/>
+      <c r="L399"/>
+      <c r="M399"/>
       <c r="N399" t="s">
-        <v>978</v>
+        <v>989</v>
       </c>
       <c r="O399" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
       <c r="P399" t="s">
-        <v>970</v>
+        <v>926</v>
       </c>
       <c r="Q399" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R399">
-        <v>24000</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="400" spans="1:18">
       <c r="A400">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B400" t="s">
         <v>916</v>
@@ -21808,7 +21984,9 @@
       <c r="E400" t="s">
         <v>918</v>
       </c>
-      <c r="F400"/>
+      <c r="F400" t="s">
+        <v>919</v>
+      </c>
       <c r="G400"/>
       <c r="H400"/>
       <c r="I400">
@@ -21817,34 +21995,28 @@
       <c r="J400">
         <v>10</v>
       </c>
-      <c r="K400">
-        <v>380200000</v>
-      </c>
-      <c r="L400">
-        <v>204403750</v>
-      </c>
-      <c r="M400" t="s">
-        <v>22</v>
-      </c>
+      <c r="K400"/>
+      <c r="L400"/>
+      <c r="M400"/>
       <c r="N400" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="O400" t="s">
-        <v>981</v>
+        <v>257</v>
       </c>
       <c r="P400" t="s">
-        <v>975</v>
+        <v>940</v>
       </c>
       <c r="Q400" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R400">
-        <v>60000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="401" spans="1:18">
       <c r="A401">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B401" t="s">
         <v>916</v>
@@ -21858,7 +22030,9 @@
       <c r="E401" t="s">
         <v>918</v>
       </c>
-      <c r="F401"/>
+      <c r="F401" t="s">
+        <v>919</v>
+      </c>
       <c r="G401"/>
       <c r="H401"/>
       <c r="I401">
@@ -21867,34 +22041,28 @@
       <c r="J401">
         <v>10</v>
       </c>
-      <c r="K401">
-        <v>380200000</v>
-      </c>
-      <c r="L401">
-        <v>204403750</v>
-      </c>
-      <c r="M401" t="s">
-        <v>22</v>
-      </c>
+      <c r="K401"/>
+      <c r="L401"/>
+      <c r="M401"/>
       <c r="N401" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="O401" t="s">
-        <v>974</v>
+        <v>992</v>
       </c>
       <c r="P401" t="s">
-        <v>946</v>
+        <v>993</v>
       </c>
       <c r="Q401" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R401">
-        <v>39400</v>
+        <v>348000</v>
       </c>
     </row>
     <row r="402" spans="1:18">
       <c r="A402">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B402" t="s">
         <v>916</v>
@@ -21908,7 +22076,9 @@
       <c r="E402" t="s">
         <v>918</v>
       </c>
-      <c r="F402"/>
+      <c r="F402" t="s">
+        <v>919</v>
+      </c>
       <c r="G402"/>
       <c r="H402"/>
       <c r="I402">
@@ -21917,34 +22087,28 @@
       <c r="J402">
         <v>10</v>
       </c>
-      <c r="K402">
-        <v>380200000</v>
-      </c>
-      <c r="L402">
-        <v>204403750</v>
-      </c>
-      <c r="M402" t="s">
-        <v>922</v>
-      </c>
+      <c r="K402"/>
+      <c r="L402"/>
+      <c r="M402"/>
       <c r="N402" t="s">
-        <v>983</v>
+        <v>994</v>
       </c>
       <c r="O402" t="s">
-        <v>984</v>
+        <v>995</v>
       </c>
       <c r="P402" t="s">
-        <v>985</v>
+        <v>996</v>
       </c>
       <c r="Q402" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R402">
-        <v>785000</v>
+        <v>59800</v>
       </c>
     </row>
     <row r="403" spans="1:18">
       <c r="A403">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B403" t="s">
         <v>916</v>
@@ -21958,7 +22122,9 @@
       <c r="E403" t="s">
         <v>918</v>
       </c>
-      <c r="F403"/>
+      <c r="F403" t="s">
+        <v>919</v>
+      </c>
       <c r="G403"/>
       <c r="H403"/>
       <c r="I403">
@@ -21967,34 +22133,28 @@
       <c r="J403">
         <v>10</v>
       </c>
-      <c r="K403">
-        <v>380200000</v>
-      </c>
-      <c r="L403">
-        <v>204403750</v>
-      </c>
-      <c r="M403" t="s">
-        <v>22</v>
-      </c>
+      <c r="K403"/>
+      <c r="L403"/>
+      <c r="M403"/>
       <c r="N403" t="s">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="O403" t="s">
-        <v>987</v>
+        <v>998</v>
       </c>
       <c r="P403" t="s">
-        <v>970</v>
+        <v>999</v>
       </c>
       <c r="Q403" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R403">
-        <v>20000</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="404" spans="1:18">
       <c r="A404">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B404" t="s">
         <v>916</v>
@@ -22008,7 +22168,9 @@
       <c r="E404" t="s">
         <v>918</v>
       </c>
-      <c r="F404"/>
+      <c r="F404" t="s">
+        <v>919</v>
+      </c>
       <c r="G404"/>
       <c r="H404"/>
       <c r="I404">
@@ -22017,34 +22179,28 @@
       <c r="J404">
         <v>10</v>
       </c>
-      <c r="K404">
-        <v>380200000</v>
-      </c>
-      <c r="L404">
-        <v>204403750</v>
-      </c>
-      <c r="M404" t="s">
-        <v>22</v>
-      </c>
+      <c r="K404"/>
+      <c r="L404"/>
+      <c r="M404"/>
       <c r="N404" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="O404" t="s">
-        <v>383</v>
+        <v>1001</v>
       </c>
       <c r="P404" t="s">
-        <v>930</v>
+        <v>1002</v>
       </c>
       <c r="Q404" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R404">
-        <v>125000</v>
+        <v>138000</v>
       </c>
     </row>
     <row r="405" spans="1:18">
       <c r="A405">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B405" t="s">
         <v>916</v>
@@ -22058,7 +22214,9 @@
       <c r="E405" t="s">
         <v>918</v>
       </c>
-      <c r="F405"/>
+      <c r="F405" t="s">
+        <v>919</v>
+      </c>
       <c r="G405"/>
       <c r="H405"/>
       <c r="I405">
@@ -22067,34 +22225,28 @@
       <c r="J405">
         <v>10</v>
       </c>
-      <c r="K405">
-        <v>380200000</v>
-      </c>
-      <c r="L405">
-        <v>204403750</v>
-      </c>
-      <c r="M405" t="s">
-        <v>22</v>
-      </c>
+      <c r="K405"/>
+      <c r="L405"/>
+      <c r="M405"/>
       <c r="N405" t="s">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="O405" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="P405" t="s">
-        <v>930</v>
+        <v>1004</v>
       </c>
       <c r="Q405" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R405">
-        <v>121700</v>
+        <v>234000</v>
       </c>
     </row>
     <row r="406" spans="1:18">
       <c r="A406">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B406" t="s">
         <v>916</v>
@@ -22108,7 +22260,9 @@
       <c r="E406" t="s">
         <v>918</v>
       </c>
-      <c r="F406"/>
+      <c r="F406" t="s">
+        <v>919</v>
+      </c>
       <c r="G406"/>
       <c r="H406"/>
       <c r="I406">
@@ -22117,34 +22271,28 @@
       <c r="J406">
         <v>10</v>
       </c>
-      <c r="K406">
-        <v>380200000</v>
-      </c>
-      <c r="L406">
-        <v>204403750</v>
-      </c>
-      <c r="M406" t="s">
-        <v>22</v>
-      </c>
+      <c r="K406"/>
+      <c r="L406"/>
+      <c r="M406"/>
       <c r="N406" t="s">
-        <v>990</v>
+        <v>1005</v>
       </c>
       <c r="O406" t="s">
-        <v>991</v>
+        <v>1006</v>
       </c>
       <c r="P406" t="s">
-        <v>921</v>
+        <v>956</v>
       </c>
       <c r="Q406" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R406">
-        <v>209300</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="407" spans="1:18">
       <c r="A407">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B407" t="s">
         <v>916</v>
@@ -22158,7 +22306,9 @@
       <c r="E407" t="s">
         <v>918</v>
       </c>
-      <c r="F407"/>
+      <c r="F407" t="s">
+        <v>919</v>
+      </c>
       <c r="G407"/>
       <c r="H407"/>
       <c r="I407">
@@ -22167,34 +22317,28 @@
       <c r="J407">
         <v>10</v>
       </c>
-      <c r="K407">
-        <v>380200000</v>
-      </c>
-      <c r="L407">
-        <v>204403750</v>
-      </c>
-      <c r="M407" t="s">
-        <v>22</v>
-      </c>
+      <c r="K407"/>
+      <c r="L407"/>
+      <c r="M407"/>
       <c r="N407" t="s">
-        <v>992</v>
+        <v>1007</v>
       </c>
       <c r="O407" t="s">
-        <v>541</v>
+        <v>1001</v>
       </c>
       <c r="P407" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="Q407" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R407">
-        <v>118000</v>
+        <v>114000</v>
       </c>
     </row>
     <row r="408" spans="1:18">
       <c r="A408">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B408" t="s">
         <v>916</v>
@@ -22208,7 +22352,9 @@
       <c r="E408" t="s">
         <v>918</v>
       </c>
-      <c r="F408"/>
+      <c r="F408" t="s">
+        <v>919</v>
+      </c>
       <c r="G408"/>
       <c r="H408"/>
       <c r="I408">
@@ -22217,34 +22363,28 @@
       <c r="J408">
         <v>10</v>
       </c>
-      <c r="K408">
-        <v>380200000</v>
-      </c>
-      <c r="L408">
-        <v>204403750</v>
-      </c>
-      <c r="M408" t="s">
-        <v>922</v>
-      </c>
+      <c r="K408"/>
+      <c r="L408"/>
+      <c r="M408"/>
       <c r="N408" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="O408" t="s">
-        <v>994</v>
+        <v>1009</v>
       </c>
       <c r="P408" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="Q408" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R408">
-        <v>333000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="409" spans="1:18">
       <c r="A409">
-        <v>10783204</v>
+        <v>13572538</v>
       </c>
       <c r="B409" t="s">
         <v>916</v>
@@ -22258,7 +22398,9 @@
       <c r="E409" t="s">
         <v>918</v>
       </c>
-      <c r="F409"/>
+      <c r="F409" t="s">
+        <v>919</v>
+      </c>
       <c r="G409"/>
       <c r="H409"/>
       <c r="I409">
@@ -22267,29 +22409,23 @@
       <c r="J409">
         <v>10</v>
       </c>
-      <c r="K409">
-        <v>380200000</v>
-      </c>
-      <c r="L409">
-        <v>204403750</v>
-      </c>
-      <c r="M409" t="s">
-        <v>22</v>
-      </c>
+      <c r="K409"/>
+      <c r="L409"/>
+      <c r="M409"/>
       <c r="N409" t="s">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="O409" t="s">
-        <v>377</v>
+        <v>299</v>
       </c>
       <c r="P409" t="s">
-        <v>997</v>
+        <v>956</v>
       </c>
       <c r="Q409" t="s">
-        <v>25</v>
+        <v>923</v>
       </c>
       <c r="R409">
-        <v>490000</v>
+        <v>127000</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -22297,16 +22433,16 @@
         <v>10783204</v>
       </c>
       <c r="B410" t="s">
-        <v>916</v>
+        <v>1011</v>
       </c>
       <c r="C410" t="s">
-        <v>917</v>
+        <v>1012</v>
       </c>
       <c r="D410" t="s">
         <v>20</v>
       </c>
       <c r="E410" t="s">
-        <v>918</v>
+        <v>1013</v>
       </c>
       <c r="F410"/>
       <c r="G410"/>
@@ -22327,19 +22463,19 @@
         <v>22</v>
       </c>
       <c r="N410" t="s">
-        <v>998</v>
+        <v>1014</v>
       </c>
       <c r="O410" t="s">
-        <v>999</v>
+        <v>1015</v>
       </c>
       <c r="P410" t="s">
-        <v>933</v>
+        <v>1016</v>
       </c>
       <c r="Q410" t="s">
         <v>25</v>
       </c>
       <c r="R410">
-        <v>238400</v>
+        <v>164600</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22347,16 +22483,16 @@
         <v>10783204</v>
       </c>
       <c r="B411" t="s">
-        <v>916</v>
+        <v>1011</v>
       </c>
       <c r="C411" t="s">
-        <v>917</v>
+        <v>1012</v>
       </c>
       <c r="D411" t="s">
         <v>20</v>
       </c>
       <c r="E411" t="s">
-        <v>918</v>
+        <v>1013</v>
       </c>
       <c r="F411"/>
       <c r="G411"/>
@@ -22374,22 +22510,22 @@
         <v>204403750</v>
       </c>
       <c r="M411" t="s">
-        <v>22</v>
+        <v>1017</v>
       </c>
       <c r="N411" t="s">
-        <v>1000</v>
+        <v>1018</v>
       </c>
       <c r="O411" t="s">
-        <v>377</v>
+        <v>1019</v>
       </c>
       <c r="P411" t="s">
-        <v>1001</v>
+        <v>1020</v>
       </c>
       <c r="Q411" t="s">
         <v>25</v>
       </c>
       <c r="R411">
-        <v>400000</v>
+        <v>307960</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22397,16 +22533,16 @@
         <v>10783204</v>
       </c>
       <c r="B412" t="s">
-        <v>916</v>
+        <v>1011</v>
       </c>
       <c r="C412" t="s">
-        <v>917</v>
+        <v>1012</v>
       </c>
       <c r="D412" t="s">
         <v>20</v>
       </c>
       <c r="E412" t="s">
-        <v>918</v>
+        <v>1013</v>
       </c>
       <c r="F412"/>
       <c r="G412"/>
@@ -22427,19 +22563,17 @@
         <v>22</v>
       </c>
       <c r="N412" t="s">
-        <v>168</v>
+        <v>365</v>
       </c>
       <c r="O412" t="s">
-        <v>527</v>
-      </c>
-      <c r="P412" t="s">
-        <v>930</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="P412"/>
       <c r="Q412" t="s">
         <v>25</v>
       </c>
       <c r="R412">
-        <v>145000</v>
+        <v>497500</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22447,16 +22581,16 @@
         <v>10783204</v>
       </c>
       <c r="B413" t="s">
-        <v>916</v>
+        <v>1011</v>
       </c>
       <c r="C413" t="s">
-        <v>917</v>
+        <v>1012</v>
       </c>
       <c r="D413" t="s">
         <v>20</v>
       </c>
       <c r="E413" t="s">
-        <v>918</v>
+        <v>1013</v>
       </c>
       <c r="F413"/>
       <c r="G413"/>
@@ -22477,19 +22611,19 @@
         <v>22</v>
       </c>
       <c r="N413" t="s">
-        <v>1002</v>
+        <v>1021</v>
       </c>
       <c r="O413" t="s">
-        <v>920</v>
+        <v>1022</v>
       </c>
       <c r="P413" t="s">
-        <v>933</v>
+        <v>1023</v>
       </c>
       <c r="Q413" t="s">
         <v>25</v>
       </c>
       <c r="R413">
-        <v>208800</v>
+        <v>277000</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22497,16 +22631,16 @@
         <v>10783204</v>
       </c>
       <c r="B414" t="s">
-        <v>916</v>
+        <v>1011</v>
       </c>
       <c r="C414" t="s">
-        <v>917</v>
+        <v>1012</v>
       </c>
       <c r="D414" t="s">
         <v>20</v>
       </c>
       <c r="E414" t="s">
-        <v>918</v>
+        <v>1013</v>
       </c>
       <c r="F414"/>
       <c r="G414"/>
@@ -22527,19 +22661,19 @@
         <v>22</v>
       </c>
       <c r="N414" t="s">
-        <v>1003</v>
+        <v>1024</v>
       </c>
       <c r="O414" t="s">
-        <v>377</v>
+        <v>661</v>
       </c>
       <c r="P414" t="s">
-        <v>1004</v>
+        <v>1025</v>
       </c>
       <c r="Q414" t="s">
         <v>25</v>
       </c>
       <c r="R414">
-        <v>195000</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22547,16 +22681,16 @@
         <v>10783204</v>
       </c>
       <c r="B415" t="s">
-        <v>916</v>
+        <v>1011</v>
       </c>
       <c r="C415" t="s">
-        <v>917</v>
+        <v>1012</v>
       </c>
       <c r="D415" t="s">
         <v>20</v>
       </c>
       <c r="E415" t="s">
-        <v>918</v>
+        <v>1013</v>
       </c>
       <c r="F415"/>
       <c r="G415"/>
@@ -22574,22 +22708,22 @@
         <v>204403750</v>
       </c>
       <c r="M415" t="s">
-        <v>922</v>
+        <v>22</v>
       </c>
       <c r="N415" t="s">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="O415" t="s">
-        <v>1006</v>
+        <v>1027</v>
       </c>
       <c r="P415" t="s">
-        <v>1007</v>
+        <v>1028</v>
       </c>
       <c r="Q415" t="s">
         <v>25</v>
       </c>
       <c r="R415">
-        <v>216270</v>
+        <v>161000</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22597,16 +22731,16 @@
         <v>10783204</v>
       </c>
       <c r="B416" t="s">
-        <v>916</v>
+        <v>1011</v>
       </c>
       <c r="C416" t="s">
-        <v>917</v>
+        <v>1012</v>
       </c>
       <c r="D416" t="s">
         <v>20</v>
       </c>
       <c r="E416" t="s">
-        <v>918</v>
+        <v>1013</v>
       </c>
       <c r="F416"/>
       <c r="G416"/>
@@ -22627,19 +22761,19 @@
         <v>22</v>
       </c>
       <c r="N416" t="s">
-        <v>1008</v>
+        <v>1029</v>
       </c>
       <c r="O416" t="s">
-        <v>1009</v>
+        <v>383</v>
       </c>
       <c r="P416" t="s">
-        <v>970</v>
+        <v>1030</v>
       </c>
       <c r="Q416" t="s">
         <v>25</v>
       </c>
       <c r="R416">
-        <v>29000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22647,16 +22781,16 @@
         <v>10783204</v>
       </c>
       <c r="B417" t="s">
-        <v>916</v>
+        <v>1011</v>
       </c>
       <c r="C417" t="s">
-        <v>917</v>
+        <v>1012</v>
       </c>
       <c r="D417" t="s">
         <v>20</v>
       </c>
       <c r="E417" t="s">
-        <v>918</v>
+        <v>1013</v>
       </c>
       <c r="F417"/>
       <c r="G417"/>
@@ -22677,19 +22811,19 @@
         <v>22</v>
       </c>
       <c r="N417" t="s">
-        <v>1010</v>
+        <v>938</v>
       </c>
       <c r="O417" t="s">
-        <v>920</v>
+        <v>1031</v>
       </c>
       <c r="P417" t="s">
-        <v>933</v>
+        <v>1016</v>
       </c>
       <c r="Q417" t="s">
         <v>25</v>
       </c>
       <c r="R417">
-        <v>237600</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22697,16 +22831,16 @@
         <v>10783204</v>
       </c>
       <c r="B418" t="s">
-        <v>916</v>
+        <v>1011</v>
       </c>
       <c r="C418" t="s">
-        <v>917</v>
+        <v>1012</v>
       </c>
       <c r="D418" t="s">
         <v>20</v>
       </c>
       <c r="E418" t="s">
-        <v>918</v>
+        <v>1013</v>
       </c>
       <c r="F418"/>
       <c r="G418"/>
@@ -22727,19 +22861,19 @@
         <v>22</v>
       </c>
       <c r="N418" t="s">
-        <v>1011</v>
+        <v>1032</v>
       </c>
       <c r="O418" t="s">
-        <v>377</v>
+        <v>1033</v>
       </c>
       <c r="P418" t="s">
-        <v>1012</v>
+        <v>1034</v>
       </c>
       <c r="Q418" t="s">
         <v>25</v>
       </c>
       <c r="R418">
-        <v>432000</v>
+        <v>390000</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22747,16 +22881,16 @@
         <v>10783204</v>
       </c>
       <c r="B419" t="s">
-        <v>916</v>
+        <v>1011</v>
       </c>
       <c r="C419" t="s">
-        <v>917</v>
+        <v>1012</v>
       </c>
       <c r="D419" t="s">
         <v>20</v>
       </c>
       <c r="E419" t="s">
-        <v>918</v>
+        <v>1013</v>
       </c>
       <c r="F419"/>
       <c r="G419"/>
@@ -22774,22 +22908,22 @@
         <v>204403750</v>
       </c>
       <c r="M419" t="s">
-        <v>22</v>
+        <v>1017</v>
       </c>
       <c r="N419" t="s">
-        <v>1013</v>
+        <v>1035</v>
       </c>
       <c r="O419" t="s">
-        <v>1014</v>
+        <v>1036</v>
       </c>
       <c r="P419" t="s">
-        <v>930</v>
+        <v>1037</v>
       </c>
       <c r="Q419" t="s">
         <v>25</v>
       </c>
       <c r="R419">
-        <v>125000</v>
+        <v>314200</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22797,16 +22931,16 @@
         <v>10783204</v>
       </c>
       <c r="B420" t="s">
-        <v>916</v>
+        <v>1011</v>
       </c>
       <c r="C420" t="s">
-        <v>917</v>
+        <v>1012</v>
       </c>
       <c r="D420" t="s">
         <v>20</v>
       </c>
       <c r="E420" t="s">
-        <v>918</v>
+        <v>1013</v>
       </c>
       <c r="F420"/>
       <c r="G420"/>
@@ -22827,19 +22961,19 @@
         <v>22</v>
       </c>
       <c r="N420" t="s">
-        <v>1015</v>
+        <v>1038</v>
       </c>
       <c r="O420" t="s">
-        <v>1016</v>
+        <v>1039</v>
       </c>
       <c r="P420" t="s">
-        <v>1012</v>
+        <v>1040</v>
       </c>
       <c r="Q420" t="s">
         <v>25</v>
       </c>
       <c r="R420">
-        <v>460000</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22847,16 +22981,16 @@
         <v>10783204</v>
       </c>
       <c r="B421" t="s">
-        <v>916</v>
+        <v>1011</v>
       </c>
       <c r="C421" t="s">
-        <v>917</v>
+        <v>1012</v>
       </c>
       <c r="D421" t="s">
         <v>20</v>
       </c>
       <c r="E421" t="s">
-        <v>918</v>
+        <v>1013</v>
       </c>
       <c r="F421"/>
       <c r="G421"/>
@@ -22877,19 +23011,19 @@
         <v>22</v>
       </c>
       <c r="N421" t="s">
-        <v>1017</v>
+        <v>1041</v>
       </c>
       <c r="O421" t="s">
-        <v>377</v>
+        <v>1042</v>
       </c>
       <c r="P421" t="s">
-        <v>958</v>
+        <v>1025</v>
       </c>
       <c r="Q421" t="s">
         <v>25</v>
       </c>
       <c r="R421">
-        <v>100000</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22897,16 +23031,16 @@
         <v>10783204</v>
       </c>
       <c r="B422" t="s">
-        <v>916</v>
+        <v>1011</v>
       </c>
       <c r="C422" t="s">
-        <v>917</v>
+        <v>1012</v>
       </c>
       <c r="D422" t="s">
         <v>20</v>
       </c>
       <c r="E422" t="s">
-        <v>918</v>
+        <v>1013</v>
       </c>
       <c r="F422"/>
       <c r="G422"/>
@@ -22927,18 +23061,1868 @@
         <v>22</v>
       </c>
       <c r="N422" t="s">
-        <v>1018</v>
+        <v>1043</v>
       </c>
       <c r="O422" t="s">
-        <v>948</v>
+        <v>519</v>
       </c>
       <c r="P422" t="s">
-        <v>950</v>
+        <v>1044</v>
       </c>
       <c r="Q422" t="s">
         <v>25</v>
       </c>
       <c r="R422">
+        <v>130500</v>
+      </c>
+    </row>
+    <row r="423" spans="1:18">
+      <c r="A423">
+        <v>10783204</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D423" t="s">
+        <v>20</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F423"/>
+      <c r="G423"/>
+      <c r="H423"/>
+      <c r="I423">
+        <v>2016</v>
+      </c>
+      <c r="J423">
+        <v>10</v>
+      </c>
+      <c r="K423">
+        <v>380200000</v>
+      </c>
+      <c r="L423">
+        <v>204403750</v>
+      </c>
+      <c r="M423" t="s">
+        <v>22</v>
+      </c>
+      <c r="N423" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O423" t="s">
+        <v>1046</v>
+      </c>
+      <c r="P423" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Q423" t="s">
+        <v>25</v>
+      </c>
+      <c r="R423">
+        <v>122000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:18">
+      <c r="A424">
+        <v>10783204</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D424" t="s">
+        <v>20</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F424"/>
+      <c r="G424"/>
+      <c r="H424"/>
+      <c r="I424">
+        <v>2016</v>
+      </c>
+      <c r="J424">
+        <v>10</v>
+      </c>
+      <c r="K424">
+        <v>380200000</v>
+      </c>
+      <c r="L424">
+        <v>204403750</v>
+      </c>
+      <c r="M424" t="s">
+        <v>22</v>
+      </c>
+      <c r="N424" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O424" t="s">
+        <v>661</v>
+      </c>
+      <c r="P424" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Q424" t="s">
+        <v>25</v>
+      </c>
+      <c r="R424">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:18">
+      <c r="A425">
+        <v>10783204</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D425" t="s">
+        <v>20</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F425"/>
+      <c r="G425"/>
+      <c r="H425"/>
+      <c r="I425">
+        <v>2016</v>
+      </c>
+      <c r="J425">
+        <v>10</v>
+      </c>
+      <c r="K425">
+        <v>380200000</v>
+      </c>
+      <c r="L425">
+        <v>204403750</v>
+      </c>
+      <c r="M425" t="s">
+        <v>22</v>
+      </c>
+      <c r="N425" t="s">
+        <v>1048</v>
+      </c>
+      <c r="O425" t="s">
+        <v>1049</v>
+      </c>
+      <c r="P425" t="s">
+        <v>1050</v>
+      </c>
+      <c r="Q425" t="s">
+        <v>25</v>
+      </c>
+      <c r="R425">
+        <v>448000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:18">
+      <c r="A426">
+        <v>10783204</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D426" t="s">
+        <v>20</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F426"/>
+      <c r="G426"/>
+      <c r="H426"/>
+      <c r="I426">
+        <v>2016</v>
+      </c>
+      <c r="J426">
+        <v>10</v>
+      </c>
+      <c r="K426">
+        <v>380200000</v>
+      </c>
+      <c r="L426">
+        <v>204403750</v>
+      </c>
+      <c r="M426" t="s">
+        <v>22</v>
+      </c>
+      <c r="N426" t="s">
+        <v>1051</v>
+      </c>
+      <c r="O426" t="s">
+        <v>451</v>
+      </c>
+      <c r="P426" t="s">
+        <v>1052</v>
+      </c>
+      <c r="Q426" t="s">
+        <v>25</v>
+      </c>
+      <c r="R426">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="427" spans="1:18">
+      <c r="A427">
+        <v>10783204</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D427" t="s">
+        <v>20</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F427"/>
+      <c r="G427"/>
+      <c r="H427"/>
+      <c r="I427">
+        <v>2016</v>
+      </c>
+      <c r="J427">
+        <v>10</v>
+      </c>
+      <c r="K427">
+        <v>380200000</v>
+      </c>
+      <c r="L427">
+        <v>204403750</v>
+      </c>
+      <c r="M427" t="s">
+        <v>22</v>
+      </c>
+      <c r="N427" t="s">
+        <v>1053</v>
+      </c>
+      <c r="O427" t="s">
+        <v>1054</v>
+      </c>
+      <c r="P427" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Q427" t="s">
+        <v>25</v>
+      </c>
+      <c r="R427">
+        <v>112800</v>
+      </c>
+    </row>
+    <row r="428" spans="1:18">
+      <c r="A428">
+        <v>10783204</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D428" t="s">
+        <v>20</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F428"/>
+      <c r="G428"/>
+      <c r="H428"/>
+      <c r="I428">
+        <v>2016</v>
+      </c>
+      <c r="J428">
+        <v>10</v>
+      </c>
+      <c r="K428">
+        <v>380200000</v>
+      </c>
+      <c r="L428">
+        <v>204403750</v>
+      </c>
+      <c r="M428" t="s">
+        <v>22</v>
+      </c>
+      <c r="N428" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O428" t="s">
+        <v>1056</v>
+      </c>
+      <c r="P428" t="s">
+        <v>1016</v>
+      </c>
+      <c r="Q428" t="s">
+        <v>25</v>
+      </c>
+      <c r="R428">
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="429" spans="1:18">
+      <c r="A429">
+        <v>10783204</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D429" t="s">
+        <v>20</v>
+      </c>
+      <c r="E429" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F429"/>
+      <c r="G429"/>
+      <c r="H429"/>
+      <c r="I429">
+        <v>2016</v>
+      </c>
+      <c r="J429">
+        <v>10</v>
+      </c>
+      <c r="K429">
+        <v>380200000</v>
+      </c>
+      <c r="L429">
+        <v>204403750</v>
+      </c>
+      <c r="M429" t="s">
+        <v>22</v>
+      </c>
+      <c r="N429" t="s">
+        <v>1057</v>
+      </c>
+      <c r="O429" t="s">
+        <v>1058</v>
+      </c>
+      <c r="P429" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Q429" t="s">
+        <v>25</v>
+      </c>
+      <c r="R429">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:18">
+      <c r="A430">
+        <v>10783204</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D430" t="s">
+        <v>20</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F430"/>
+      <c r="G430"/>
+      <c r="H430"/>
+      <c r="I430">
+        <v>2016</v>
+      </c>
+      <c r="J430">
+        <v>10</v>
+      </c>
+      <c r="K430">
+        <v>380200000</v>
+      </c>
+      <c r="L430">
+        <v>204403750</v>
+      </c>
+      <c r="M430" t="s">
+        <v>22</v>
+      </c>
+      <c r="N430" t="s">
+        <v>530</v>
+      </c>
+      <c r="O430" t="s">
+        <v>1059</v>
+      </c>
+      <c r="P430" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Q430" t="s">
+        <v>25</v>
+      </c>
+      <c r="R430">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:18">
+      <c r="A431">
+        <v>10783204</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D431" t="s">
+        <v>20</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F431"/>
+      <c r="G431"/>
+      <c r="H431"/>
+      <c r="I431">
+        <v>2016</v>
+      </c>
+      <c r="J431">
+        <v>10</v>
+      </c>
+      <c r="K431">
+        <v>380200000</v>
+      </c>
+      <c r="L431">
+        <v>204403750</v>
+      </c>
+      <c r="M431" t="s">
+        <v>22</v>
+      </c>
+      <c r="N431" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O431" t="s">
+        <v>1061</v>
+      </c>
+      <c r="P431" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Q431" t="s">
+        <v>25</v>
+      </c>
+      <c r="R431">
+        <v>328000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:18">
+      <c r="A432">
+        <v>10783204</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D432" t="s">
+        <v>20</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F432"/>
+      <c r="G432"/>
+      <c r="H432"/>
+      <c r="I432">
+        <v>2016</v>
+      </c>
+      <c r="J432">
+        <v>10</v>
+      </c>
+      <c r="K432">
+        <v>380200000</v>
+      </c>
+      <c r="L432">
+        <v>204403750</v>
+      </c>
+      <c r="M432" t="s">
+        <v>22</v>
+      </c>
+      <c r="N432" t="s">
+        <v>80</v>
+      </c>
+      <c r="O432" t="s">
+        <v>1063</v>
+      </c>
+      <c r="P432" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Q432" t="s">
+        <v>25</v>
+      </c>
+      <c r="R432">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:18">
+      <c r="A433">
+        <v>10783204</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D433" t="s">
+        <v>20</v>
+      </c>
+      <c r="E433" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F433"/>
+      <c r="G433"/>
+      <c r="H433"/>
+      <c r="I433">
+        <v>2016</v>
+      </c>
+      <c r="J433">
+        <v>10</v>
+      </c>
+      <c r="K433">
+        <v>380200000</v>
+      </c>
+      <c r="L433">
+        <v>204403750</v>
+      </c>
+      <c r="M433" t="s">
+        <v>22</v>
+      </c>
+      <c r="N433" t="s">
+        <v>1065</v>
+      </c>
+      <c r="O433" t="s">
+        <v>1066</v>
+      </c>
+      <c r="P433" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Q433" t="s">
+        <v>25</v>
+      </c>
+      <c r="R433">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="434" spans="1:18">
+      <c r="A434">
+        <v>10783204</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D434" t="s">
+        <v>20</v>
+      </c>
+      <c r="E434" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F434"/>
+      <c r="G434"/>
+      <c r="H434"/>
+      <c r="I434">
+        <v>2016</v>
+      </c>
+      <c r="J434">
+        <v>10</v>
+      </c>
+      <c r="K434">
+        <v>380200000</v>
+      </c>
+      <c r="L434">
+        <v>204403750</v>
+      </c>
+      <c r="M434" t="s">
+        <v>22</v>
+      </c>
+      <c r="N434" t="s">
+        <v>1067</v>
+      </c>
+      <c r="O434" t="s">
+        <v>1068</v>
+      </c>
+      <c r="P434" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Q434" t="s">
+        <v>25</v>
+      </c>
+      <c r="R434">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:18">
+      <c r="A435">
+        <v>10783204</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D435" t="s">
+        <v>20</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F435"/>
+      <c r="G435"/>
+      <c r="H435"/>
+      <c r="I435">
+        <v>2016</v>
+      </c>
+      <c r="J435">
+        <v>10</v>
+      </c>
+      <c r="K435">
+        <v>380200000</v>
+      </c>
+      <c r="L435">
+        <v>204403750</v>
+      </c>
+      <c r="M435" t="s">
+        <v>22</v>
+      </c>
+      <c r="N435" t="s">
+        <v>1070</v>
+      </c>
+      <c r="O435" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P435" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Q435" t="s">
+        <v>25</v>
+      </c>
+      <c r="R435">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="436" spans="1:18">
+      <c r="A436">
+        <v>10783204</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D436" t="s">
+        <v>20</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F436"/>
+      <c r="G436"/>
+      <c r="H436"/>
+      <c r="I436">
+        <v>2016</v>
+      </c>
+      <c r="J436">
+        <v>10</v>
+      </c>
+      <c r="K436">
+        <v>380200000</v>
+      </c>
+      <c r="L436">
+        <v>204403750</v>
+      </c>
+      <c r="M436" t="s">
+        <v>22</v>
+      </c>
+      <c r="N436" t="s">
+        <v>1072</v>
+      </c>
+      <c r="O436" t="s">
+        <v>1073</v>
+      </c>
+      <c r="P436" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Q436" t="s">
+        <v>25</v>
+      </c>
+      <c r="R436">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:18">
+      <c r="A437">
+        <v>10783204</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D437" t="s">
+        <v>20</v>
+      </c>
+      <c r="E437" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F437"/>
+      <c r="G437"/>
+      <c r="H437"/>
+      <c r="I437">
+        <v>2016</v>
+      </c>
+      <c r="J437">
+        <v>10</v>
+      </c>
+      <c r="K437">
+        <v>380200000</v>
+      </c>
+      <c r="L437">
+        <v>204403750</v>
+      </c>
+      <c r="M437" t="s">
+        <v>22</v>
+      </c>
+      <c r="N437" t="s">
+        <v>1074</v>
+      </c>
+      <c r="O437" t="s">
+        <v>1075</v>
+      </c>
+      <c r="P437" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Q437" t="s">
+        <v>25</v>
+      </c>
+      <c r="R437">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:18">
+      <c r="A438">
+        <v>10783204</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D438" t="s">
+        <v>20</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F438"/>
+      <c r="G438"/>
+      <c r="H438"/>
+      <c r="I438">
+        <v>2016</v>
+      </c>
+      <c r="J438">
+        <v>10</v>
+      </c>
+      <c r="K438">
+        <v>380200000</v>
+      </c>
+      <c r="L438">
+        <v>204403750</v>
+      </c>
+      <c r="M438" t="s">
+        <v>22</v>
+      </c>
+      <c r="N438" t="s">
+        <v>1076</v>
+      </c>
+      <c r="O438" t="s">
+        <v>1068</v>
+      </c>
+      <c r="P438" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Q438" t="s">
+        <v>25</v>
+      </c>
+      <c r="R438">
+        <v>39400</v>
+      </c>
+    </row>
+    <row r="439" spans="1:18">
+      <c r="A439">
+        <v>10783204</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D439" t="s">
+        <v>20</v>
+      </c>
+      <c r="E439" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F439"/>
+      <c r="G439"/>
+      <c r="H439"/>
+      <c r="I439">
+        <v>2016</v>
+      </c>
+      <c r="J439">
+        <v>10</v>
+      </c>
+      <c r="K439">
+        <v>380200000</v>
+      </c>
+      <c r="L439">
+        <v>204403750</v>
+      </c>
+      <c r="M439" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N439" t="s">
+        <v>1077</v>
+      </c>
+      <c r="O439" t="s">
+        <v>1078</v>
+      </c>
+      <c r="P439" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q439" t="s">
+        <v>25</v>
+      </c>
+      <c r="R439">
+        <v>785000</v>
+      </c>
+    </row>
+    <row r="440" spans="1:18">
+      <c r="A440">
+        <v>10783204</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D440" t="s">
+        <v>20</v>
+      </c>
+      <c r="E440" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F440"/>
+      <c r="G440"/>
+      <c r="H440"/>
+      <c r="I440">
+        <v>2016</v>
+      </c>
+      <c r="J440">
+        <v>10</v>
+      </c>
+      <c r="K440">
+        <v>380200000</v>
+      </c>
+      <c r="L440">
+        <v>204403750</v>
+      </c>
+      <c r="M440" t="s">
+        <v>22</v>
+      </c>
+      <c r="N440" t="s">
+        <v>1080</v>
+      </c>
+      <c r="O440" t="s">
+        <v>1081</v>
+      </c>
+      <c r="P440" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Q440" t="s">
+        <v>25</v>
+      </c>
+      <c r="R440">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="441" spans="1:18">
+      <c r="A441">
+        <v>10783204</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D441" t="s">
+        <v>20</v>
+      </c>
+      <c r="E441" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F441"/>
+      <c r="G441"/>
+      <c r="H441"/>
+      <c r="I441">
+        <v>2016</v>
+      </c>
+      <c r="J441">
+        <v>10</v>
+      </c>
+      <c r="K441">
+        <v>380200000</v>
+      </c>
+      <c r="L441">
+        <v>204403750</v>
+      </c>
+      <c r="M441" t="s">
+        <v>22</v>
+      </c>
+      <c r="N441" t="s">
+        <v>1082</v>
+      </c>
+      <c r="O441" t="s">
+        <v>383</v>
+      </c>
+      <c r="P441" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Q441" t="s">
+        <v>25</v>
+      </c>
+      <c r="R441">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="442" spans="1:18">
+      <c r="A442">
+        <v>10783204</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D442" t="s">
+        <v>20</v>
+      </c>
+      <c r="E442" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F442"/>
+      <c r="G442"/>
+      <c r="H442"/>
+      <c r="I442">
+        <v>2016</v>
+      </c>
+      <c r="J442">
+        <v>10</v>
+      </c>
+      <c r="K442">
+        <v>380200000</v>
+      </c>
+      <c r="L442">
+        <v>204403750</v>
+      </c>
+      <c r="M442" t="s">
+        <v>22</v>
+      </c>
+      <c r="N442" t="s">
+        <v>1083</v>
+      </c>
+      <c r="O442" t="s">
+        <v>1015</v>
+      </c>
+      <c r="P442" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Q442" t="s">
+        <v>25</v>
+      </c>
+      <c r="R442">
+        <v>121700</v>
+      </c>
+    </row>
+    <row r="443" spans="1:18">
+      <c r="A443">
+        <v>10783204</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D443" t="s">
+        <v>20</v>
+      </c>
+      <c r="E443" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F443"/>
+      <c r="G443"/>
+      <c r="H443"/>
+      <c r="I443">
+        <v>2016</v>
+      </c>
+      <c r="J443">
+        <v>10</v>
+      </c>
+      <c r="K443">
+        <v>380200000</v>
+      </c>
+      <c r="L443">
+        <v>204403750</v>
+      </c>
+      <c r="M443" t="s">
+        <v>22</v>
+      </c>
+      <c r="N443" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O443" t="s">
+        <v>1085</v>
+      </c>
+      <c r="P443" t="s">
+        <v>1016</v>
+      </c>
+      <c r="Q443" t="s">
+        <v>25</v>
+      </c>
+      <c r="R443">
+        <v>209300</v>
+      </c>
+    </row>
+    <row r="444" spans="1:18">
+      <c r="A444">
+        <v>10783204</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D444" t="s">
+        <v>20</v>
+      </c>
+      <c r="E444" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F444"/>
+      <c r="G444"/>
+      <c r="H444"/>
+      <c r="I444">
+        <v>2016</v>
+      </c>
+      <c r="J444">
+        <v>10</v>
+      </c>
+      <c r="K444">
+        <v>380200000</v>
+      </c>
+      <c r="L444">
+        <v>204403750</v>
+      </c>
+      <c r="M444" t="s">
+        <v>22</v>
+      </c>
+      <c r="N444" t="s">
+        <v>1086</v>
+      </c>
+      <c r="O444" t="s">
+        <v>541</v>
+      </c>
+      <c r="P444" t="s">
+        <v>1052</v>
+      </c>
+      <c r="Q444" t="s">
+        <v>25</v>
+      </c>
+      <c r="R444">
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:18">
+      <c r="A445">
+        <v>10783204</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D445" t="s">
+        <v>20</v>
+      </c>
+      <c r="E445" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F445"/>
+      <c r="G445"/>
+      <c r="H445"/>
+      <c r="I445">
+        <v>2016</v>
+      </c>
+      <c r="J445">
+        <v>10</v>
+      </c>
+      <c r="K445">
+        <v>380200000</v>
+      </c>
+      <c r="L445">
+        <v>204403750</v>
+      </c>
+      <c r="M445" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N445" t="s">
+        <v>1087</v>
+      </c>
+      <c r="O445" t="s">
+        <v>1088</v>
+      </c>
+      <c r="P445" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q445" t="s">
+        <v>25</v>
+      </c>
+      <c r="R445">
+        <v>333000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:18">
+      <c r="A446">
+        <v>10783204</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D446" t="s">
+        <v>20</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F446"/>
+      <c r="G446"/>
+      <c r="H446"/>
+      <c r="I446">
+        <v>2016</v>
+      </c>
+      <c r="J446">
+        <v>10</v>
+      </c>
+      <c r="K446">
+        <v>380200000</v>
+      </c>
+      <c r="L446">
+        <v>204403750</v>
+      </c>
+      <c r="M446" t="s">
+        <v>22</v>
+      </c>
+      <c r="N446" t="s">
+        <v>1090</v>
+      </c>
+      <c r="O446" t="s">
+        <v>377</v>
+      </c>
+      <c r="P446" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Q446" t="s">
+        <v>25</v>
+      </c>
+      <c r="R446">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="447" spans="1:18">
+      <c r="A447">
+        <v>10783204</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D447" t="s">
+        <v>20</v>
+      </c>
+      <c r="E447" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F447"/>
+      <c r="G447"/>
+      <c r="H447"/>
+      <c r="I447">
+        <v>2016</v>
+      </c>
+      <c r="J447">
+        <v>10</v>
+      </c>
+      <c r="K447">
+        <v>380200000</v>
+      </c>
+      <c r="L447">
+        <v>204403750</v>
+      </c>
+      <c r="M447" t="s">
+        <v>22</v>
+      </c>
+      <c r="N447" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O447" t="s">
+        <v>1093</v>
+      </c>
+      <c r="P447" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q447" t="s">
+        <v>25</v>
+      </c>
+      <c r="R447">
+        <v>238400</v>
+      </c>
+    </row>
+    <row r="448" spans="1:18">
+      <c r="A448">
+        <v>10783204</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D448" t="s">
+        <v>20</v>
+      </c>
+      <c r="E448" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F448"/>
+      <c r="G448"/>
+      <c r="H448"/>
+      <c r="I448">
+        <v>2016</v>
+      </c>
+      <c r="J448">
+        <v>10</v>
+      </c>
+      <c r="K448">
+        <v>380200000</v>
+      </c>
+      <c r="L448">
+        <v>204403750</v>
+      </c>
+      <c r="M448" t="s">
+        <v>22</v>
+      </c>
+      <c r="N448" t="s">
+        <v>1094</v>
+      </c>
+      <c r="O448" t="s">
+        <v>377</v>
+      </c>
+      <c r="P448" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Q448" t="s">
+        <v>25</v>
+      </c>
+      <c r="R448">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="449" spans="1:18">
+      <c r="A449">
+        <v>10783204</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D449" t="s">
+        <v>20</v>
+      </c>
+      <c r="E449" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F449"/>
+      <c r="G449"/>
+      <c r="H449"/>
+      <c r="I449">
+        <v>2016</v>
+      </c>
+      <c r="J449">
+        <v>10</v>
+      </c>
+      <c r="K449">
+        <v>380200000</v>
+      </c>
+      <c r="L449">
+        <v>204403750</v>
+      </c>
+      <c r="M449" t="s">
+        <v>22</v>
+      </c>
+      <c r="N449" t="s">
+        <v>168</v>
+      </c>
+      <c r="O449" t="s">
+        <v>527</v>
+      </c>
+      <c r="P449" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Q449" t="s">
+        <v>25</v>
+      </c>
+      <c r="R449">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="450" spans="1:18">
+      <c r="A450">
+        <v>10783204</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D450" t="s">
+        <v>20</v>
+      </c>
+      <c r="E450" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F450"/>
+      <c r="G450"/>
+      <c r="H450"/>
+      <c r="I450">
+        <v>2016</v>
+      </c>
+      <c r="J450">
+        <v>10</v>
+      </c>
+      <c r="K450">
+        <v>380200000</v>
+      </c>
+      <c r="L450">
+        <v>204403750</v>
+      </c>
+      <c r="M450" t="s">
+        <v>22</v>
+      </c>
+      <c r="N450" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O450" t="s">
+        <v>1015</v>
+      </c>
+      <c r="P450" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q450" t="s">
+        <v>25</v>
+      </c>
+      <c r="R450">
+        <v>208800</v>
+      </c>
+    </row>
+    <row r="451" spans="1:18">
+      <c r="A451">
+        <v>10783204</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D451" t="s">
+        <v>20</v>
+      </c>
+      <c r="E451" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F451"/>
+      <c r="G451"/>
+      <c r="H451"/>
+      <c r="I451">
+        <v>2016</v>
+      </c>
+      <c r="J451">
+        <v>10</v>
+      </c>
+      <c r="K451">
+        <v>380200000</v>
+      </c>
+      <c r="L451">
+        <v>204403750</v>
+      </c>
+      <c r="M451" t="s">
+        <v>22</v>
+      </c>
+      <c r="N451" t="s">
+        <v>1097</v>
+      </c>
+      <c r="O451" t="s">
+        <v>377</v>
+      </c>
+      <c r="P451" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Q451" t="s">
+        <v>25</v>
+      </c>
+      <c r="R451">
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="452" spans="1:18">
+      <c r="A452">
+        <v>10783204</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D452" t="s">
+        <v>20</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F452"/>
+      <c r="G452"/>
+      <c r="H452"/>
+      <c r="I452">
+        <v>2016</v>
+      </c>
+      <c r="J452">
+        <v>10</v>
+      </c>
+      <c r="K452">
+        <v>380200000</v>
+      </c>
+      <c r="L452">
+        <v>204403750</v>
+      </c>
+      <c r="M452" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N452" t="s">
+        <v>1099</v>
+      </c>
+      <c r="O452" t="s">
+        <v>1100</v>
+      </c>
+      <c r="P452" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Q452" t="s">
+        <v>25</v>
+      </c>
+      <c r="R452">
+        <v>216270</v>
+      </c>
+    </row>
+    <row r="453" spans="1:18">
+      <c r="A453">
+        <v>10783204</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D453" t="s">
+        <v>20</v>
+      </c>
+      <c r="E453" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F453"/>
+      <c r="G453"/>
+      <c r="H453"/>
+      <c r="I453">
+        <v>2016</v>
+      </c>
+      <c r="J453">
+        <v>10</v>
+      </c>
+      <c r="K453">
+        <v>380200000</v>
+      </c>
+      <c r="L453">
+        <v>204403750</v>
+      </c>
+      <c r="M453" t="s">
+        <v>22</v>
+      </c>
+      <c r="N453" t="s">
+        <v>1102</v>
+      </c>
+      <c r="O453" t="s">
+        <v>1103</v>
+      </c>
+      <c r="P453" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Q453" t="s">
+        <v>25</v>
+      </c>
+      <c r="R453">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="454" spans="1:18">
+      <c r="A454">
+        <v>10783204</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D454" t="s">
+        <v>20</v>
+      </c>
+      <c r="E454" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F454"/>
+      <c r="G454"/>
+      <c r="H454"/>
+      <c r="I454">
+        <v>2016</v>
+      </c>
+      <c r="J454">
+        <v>10</v>
+      </c>
+      <c r="K454">
+        <v>380200000</v>
+      </c>
+      <c r="L454">
+        <v>204403750</v>
+      </c>
+      <c r="M454" t="s">
+        <v>22</v>
+      </c>
+      <c r="N454" t="s">
+        <v>1104</v>
+      </c>
+      <c r="O454" t="s">
+        <v>1015</v>
+      </c>
+      <c r="P454" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q454" t="s">
+        <v>25</v>
+      </c>
+      <c r="R454">
+        <v>237600</v>
+      </c>
+    </row>
+    <row r="455" spans="1:18">
+      <c r="A455">
+        <v>10783204</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D455" t="s">
+        <v>20</v>
+      </c>
+      <c r="E455" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F455"/>
+      <c r="G455"/>
+      <c r="H455"/>
+      <c r="I455">
+        <v>2016</v>
+      </c>
+      <c r="J455">
+        <v>10</v>
+      </c>
+      <c r="K455">
+        <v>380200000</v>
+      </c>
+      <c r="L455">
+        <v>204403750</v>
+      </c>
+      <c r="M455" t="s">
+        <v>22</v>
+      </c>
+      <c r="N455" t="s">
+        <v>1105</v>
+      </c>
+      <c r="O455" t="s">
+        <v>377</v>
+      </c>
+      <c r="P455" t="s">
+        <v>1106</v>
+      </c>
+      <c r="Q455" t="s">
+        <v>25</v>
+      </c>
+      <c r="R455">
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="456" spans="1:18">
+      <c r="A456">
+        <v>10783204</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D456" t="s">
+        <v>20</v>
+      </c>
+      <c r="E456" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F456"/>
+      <c r="G456"/>
+      <c r="H456"/>
+      <c r="I456">
+        <v>2016</v>
+      </c>
+      <c r="J456">
+        <v>10</v>
+      </c>
+      <c r="K456">
+        <v>380200000</v>
+      </c>
+      <c r="L456">
+        <v>204403750</v>
+      </c>
+      <c r="M456" t="s">
+        <v>22</v>
+      </c>
+      <c r="N456" t="s">
+        <v>1107</v>
+      </c>
+      <c r="O456" t="s">
+        <v>1108</v>
+      </c>
+      <c r="P456" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Q456" t="s">
+        <v>25</v>
+      </c>
+      <c r="R456">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="457" spans="1:18">
+      <c r="A457">
+        <v>10783204</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D457" t="s">
+        <v>20</v>
+      </c>
+      <c r="E457" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F457"/>
+      <c r="G457"/>
+      <c r="H457"/>
+      <c r="I457">
+        <v>2016</v>
+      </c>
+      <c r="J457">
+        <v>10</v>
+      </c>
+      <c r="K457">
+        <v>380200000</v>
+      </c>
+      <c r="L457">
+        <v>204403750</v>
+      </c>
+      <c r="M457" t="s">
+        <v>22</v>
+      </c>
+      <c r="N457" t="s">
+        <v>1109</v>
+      </c>
+      <c r="O457" t="s">
+        <v>1110</v>
+      </c>
+      <c r="P457" t="s">
+        <v>1106</v>
+      </c>
+      <c r="Q457" t="s">
+        <v>25</v>
+      </c>
+      <c r="R457">
+        <v>460000</v>
+      </c>
+    </row>
+    <row r="458" spans="1:18">
+      <c r="A458">
+        <v>10783204</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D458" t="s">
+        <v>20</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F458"/>
+      <c r="G458"/>
+      <c r="H458"/>
+      <c r="I458">
+        <v>2016</v>
+      </c>
+      <c r="J458">
+        <v>10</v>
+      </c>
+      <c r="K458">
+        <v>380200000</v>
+      </c>
+      <c r="L458">
+        <v>204403750</v>
+      </c>
+      <c r="M458" t="s">
+        <v>22</v>
+      </c>
+      <c r="N458" t="s">
+        <v>1111</v>
+      </c>
+      <c r="O458" t="s">
+        <v>377</v>
+      </c>
+      <c r="P458" t="s">
+        <v>1052</v>
+      </c>
+      <c r="Q458" t="s">
+        <v>25</v>
+      </c>
+      <c r="R458">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="459" spans="1:18">
+      <c r="A459">
+        <v>10783204</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D459" t="s">
+        <v>20</v>
+      </c>
+      <c r="E459" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F459"/>
+      <c r="G459"/>
+      <c r="H459"/>
+      <c r="I459">
+        <v>2016</v>
+      </c>
+      <c r="J459">
+        <v>10</v>
+      </c>
+      <c r="K459">
+        <v>380200000</v>
+      </c>
+      <c r="L459">
+        <v>204403750</v>
+      </c>
+      <c r="M459" t="s">
+        <v>22</v>
+      </c>
+      <c r="N459" t="s">
+        <v>1112</v>
+      </c>
+      <c r="O459" t="s">
+        <v>1042</v>
+      </c>
+      <c r="P459" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Q459" t="s">
+        <v>25</v>
+      </c>
+      <c r="R459">
         <v>241000</v>
       </c>
     </row>
